--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
@@ -8,22 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C69C9E4-689B-46AD-A4FD-87A957D7F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C2A2A-FBD0-4163-BDE1-B07C4289879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="8" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
   </bookViews>
   <sheets>
     <sheet name="yang (flow+time)" sheetId="1" r:id="rId1"/>
     <sheet name="yang (flow+event)" sheetId="6" r:id="rId2"/>
     <sheet name="yang (pres.+time)" sheetId="2" r:id="rId3"/>
     <sheet name="yang (pres.+event)" sheetId="4" r:id="rId4"/>
-    <sheet name="comparisons" sheetId="5" r:id="rId5"/>
+    <sheet name="yang (flow+time)_smoother" sheetId="8" r:id="rId5"/>
+    <sheet name="yang (flow+event)_smoother" sheetId="9" r:id="rId6"/>
+    <sheet name="yang (pres.+time)_smoother" sheetId="7" r:id="rId7"/>
+    <sheet name="yang (pres.+event)_smoother" sheetId="10" r:id="rId8"/>
+    <sheet name="comparisons" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'yang (flow+event)'!$B$2:$K$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'yang (flow+event)_smoother'!$B$2:$K$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'yang (flow+time)'!$B$2:$K$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'yang (flow+time)_smoother'!$B$2:$K$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'yang (pres.+event)'!$B$2:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'yang (pres.+event)_smoother'!$B$2:$K$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'yang (pres.+time)'!$B$2:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'yang (pres.+time)_smoother'!$B$2:$K$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>css conv.</t>
   </si>
@@ -70,21 +78,6 @@
     <t>cycle no. (End of nth PSA Cycle)</t>
   </si>
   <si>
-    <t>comparisons</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>cycNo.</t>
   </si>
   <si>
@@ -95,23 +88,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -160,26 +140,297 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -231,7 +482,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs. Cycle Number</a:t>
+              <a:t> vs. Cycle Number (nonsmooth)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -276,39 +527,20 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>comparisons!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>zero</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -452,130 +684,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>9.0645639303730801E-3</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8494882259608101E-4</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1647930741714495E-5</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2109054116809501E-5</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.84620545391188E-6</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9211661829017799E-6</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.27355974756811E-6</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.689083460462581E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8292398807427297E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4971914041207399E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4573212913636097E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6170305178640203E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9195875036619398E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3385894687318402E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8522749792658802E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4361464736355302E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0108339072730999E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7700074086085999E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5304942682833E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3561024518096501E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1509915944738E-7</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.8986130988037402E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5634019496327797E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4266953440042895E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4639400503281999E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.6254372316289502E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.9183281698979501E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.3124650710294002E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.78819302640894E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3567012086772102E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9497709746373799E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.60500767258345E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.31325485416189E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0609933338497499E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.84367304734062E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.6542312630688901E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4907017906797201E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3502329088975901E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2244756374042999E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.11491045100028E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0197149136051199E-8</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.3657640566856205E-9</c:v>
+                  <c:v>1E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,23 +815,29 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A9B-4B71-9BB5-1B24AF3FEBD2}"/>
+              <c16:uniqueId val="{00000000-980F-4423-A30C-18FF76507B31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454142080"/>
+        <c:axId val="1229420192"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>comparisons!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>FT</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -627,10 +865,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$40</c:f>
+              <c:f>'yang (flow+time)'!$C$5:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -738,131 +976,167 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$C$5:$C$40</c:f>
+              <c:f>'yang (flow+time)'!$D$5:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>1.23407689823485E-2</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9.0645639303730801E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1613028666262102E-5</c:v>
+                  <c:v>4.8494882259608101E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8967054846503398E-6</c:v>
+                  <c:v>6.1647930741714495E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5890167596097702E-6</c:v>
+                  <c:v>1.2109054116809501E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.74131683342535E-6</c:v>
+                  <c:v>3.84620545391188E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3394250200971199E-6</c:v>
+                  <c:v>1.9211661829017799E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.07813128615463E-6</c:v>
+                  <c:v>1.27355974756811E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8317715928977295E-7</c:v>
+                  <c:v>9.689083460462581E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3045737648642604E-7</c:v>
+                  <c:v>7.8292398807427297E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0710360025743704E-7</c:v>
+                  <c:v>6.4971914041207399E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0568622162888499E-7</c:v>
+                  <c:v>5.4573212913636097E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2272449277194099E-7</c:v>
+                  <c:v>4.6170305178640203E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5407872852904799E-7</c:v>
+                  <c:v>3.9195875036619398E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9726853947968398E-7</c:v>
+                  <c:v>3.3385894687318402E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.49646115099842E-7</c:v>
+                  <c:v>2.8522749792658802E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.09986120401049E-7</c:v>
+                  <c:v>2.4361464736355302E-7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7713542238366799E-7</c:v>
+                  <c:v>2.0108339072730999E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4977828284681401E-7</c:v>
+                  <c:v>1.7700074086085999E-7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2683544910923501E-7</c:v>
+                  <c:v>1.5304942682833E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0756399130515099E-7</c:v>
+                  <c:v>1.3561024518096501E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.1359191283755107E-8</c:v>
+                  <c:v>1.1509915944738E-7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7699745102310796E-8</c:v>
+                  <c:v>9.8986130988037402E-8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6176750415532398E-8</c:v>
+                  <c:v>8.5634019496327797E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.6444161820788499E-8</c:v>
+                  <c:v>7.4266953440042895E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8214374572649003E-8</c:v>
+                  <c:v>6.4639400503281999E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1246447130212699E-8</c:v>
+                  <c:v>5.6254372316289502E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5342426517407902E-8</c:v>
+                  <c:v>4.9183281698979501E-8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0336431272585998E-8</c:v>
+                  <c:v>4.3124650710294002E-8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6085485255806601E-8</c:v>
+                  <c:v>3.78819302640894E-8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.24736312512332E-8</c:v>
+                  <c:v>3.3567012086772102E-8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.94067321477659E-8</c:v>
+                  <c:v>2.9497709746373799E-8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6793560873613701E-8</c:v>
+                  <c:v>2.60500767258345E-8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.45641822239934E-8</c:v>
+                  <c:v>2.31325485416189E-8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.26636863347192E-8</c:v>
+                  <c:v>2.0609933338497499E-8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1041908680870201E-8</c:v>
+                  <c:v>1.84367304734062E-8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.6551955592947007E-9</c:v>
+                  <c:v>1.6542312630688901E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4907017906797201E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.3502329088975901E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2244756374042999E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.11491045100028E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0197149136051199E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3657640566856205E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A9B-4B71-9BB5-1B24AF3FEBD2}"/>
+              <c16:uniqueId val="{00000001-980F-4423-A30C-18FF76507B31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,15 +1144,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>comparisons!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>FE</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -906,10 +1172,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$36</c:f>
+              <c:f>'yang (flow+event)'!$C$5:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1005,116 +1271,143 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$D$5:$D$36</c:f>
+              <c:f>'yang (flow+event)'!$D$5:$D$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>1.0831835053885E-2</c:v>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.23407689823485E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8095424653246698E-4</c:v>
+                  <c:v>4.1613028666262102E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3013278633031099E-5</c:v>
+                  <c:v>5.8967054846503398E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8041700514839502E-6</c:v>
+                  <c:v>2.5890167596097702E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9618461767615201E-6</c:v>
+                  <c:v>1.74131683342535E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3576303643415104E-7</c:v>
+                  <c:v>1.3394250200971199E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4157127524716698E-7</c:v>
+                  <c:v>1.07813128615463E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9326161320973297E-7</c:v>
+                  <c:v>8.8317715928977295E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0859005671857402E-7</c:v>
+                  <c:v>7.3045737648642604E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3950433279754201E-7</c:v>
+                  <c:v>6.0710360025743704E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8186388282054899E-7</c:v>
+                  <c:v>5.0568622162888499E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.38817715536678E-7</c:v>
+                  <c:v>4.2272449277194099E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0002023491715199E-7</c:v>
+                  <c:v>3.5407872852904799E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6711454024358499E-7</c:v>
+                  <c:v>2.9726853947968398E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.42528971099536E-7</c:v>
+                  <c:v>2.49646115099842E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2152270479162101E-7</c:v>
+                  <c:v>2.09986120401049E-7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9061361557608197E-8</c:v>
+                  <c:v>1.7713542238366799E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5392628877543606E-8</c:v>
+                  <c:v>1.4977828284681401E-7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3444145500327303E-8</c:v>
+                  <c:v>1.2683544910923501E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8430933109564801E-8</c:v>
+                  <c:v>1.0756399130515099E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3406178890292898E-8</c:v>
+                  <c:v>9.1359191283755107E-8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.6360321238453598E-8</c:v>
+                  <c:v>7.7699745102310796E-8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.61300883575176E-8</c:v>
+                  <c:v>6.6176750415532398E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0035999000882299E-8</c:v>
+                  <c:v>5.6444161820788499E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7158174902487701E-8</c:v>
+                  <c:v>4.8214374572649003E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0976464193207899E-8</c:v>
+                  <c:v>4.1246447130212699E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.84260731426924E-8</c:v>
+                  <c:v>3.5342426517407902E-8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5711840766939299E-8</c:v>
+                  <c:v>3.0336431272585998E-8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.385131115105E-8</c:v>
+                  <c:v>2.6085485255806601E-8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.21240752099985E-8</c:v>
+                  <c:v>2.24736312512332E-8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.6980839842130203E-9</c:v>
+                  <c:v>1.94067321477659E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6793560873613701E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.45641822239934E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.26636863347192E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1041908680870201E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.6551955592947007E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A9B-4B71-9BB5-1B24AF3FEBD2}"/>
+              <c16:uniqueId val="{00000002-980F-4423-A30C-18FF76507B31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1122,15 +1415,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>comparisons!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>PT</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1158,10 +1443,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>comparisons!$A$5:$A$22</c:f>
+              <c:f>'yang (pres.+time)'!$C$5:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1215,316 +1500,155 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>comparisons!$E$5:$E$22</c:f>
+              <c:f>'yang (pres.+time)'!$D$5:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.0831835053885E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8095424653246698E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>5.3013278633031099E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>7.8041700514839502E-6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.9618461767615201E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>9.3576303643415104E-7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>6.4157127524716698E-7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>4.9326161320973297E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>4.0859005671857402E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>3.3950433279754201E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.8186388282054899E-7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2.38817715536678E-7</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>2.0002023491715199E-7</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>1.6711454024358499E-7</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>1.42528971099536E-7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>1.2152270479162101E-7</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>9.9061361557608197E-8</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>8.5392628877543606E-8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>7.3444145500327303E-8</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>5.8430933109564801E-8</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>5.3406178890292898E-8</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>4.6360321238453598E-8</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>3.61300883575176E-8</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>3.0035999000882299E-8</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>2.7158174902487701E-8</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>2.0976464193207899E-8</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>1.84260731426924E-8</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>1.5711840766939299E-8</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.385131115105E-8</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>1.21240752099985E-8</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>9.6980839842130203E-9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6A9B-4B71-9BB5-1B24AF3FEBD2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>comparisons!$A$5:$A$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>comparisons!$F$5:$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1E-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6A9B-4B71-9BB5-1B24AF3FEBD2}"/>
+              <c16:uniqueId val="{00000003-980F-4423-A30C-18FF76507B31}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1865,7 +1989,1287 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CSS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Cycle Number (smooth)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>zero</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>comparisons!$A$5:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>comparisons!$B$5:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88F2-49D6-910B-95E162499AE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'yang (flow+time)_smoother'!$C$5:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'yang (flow+time)_smoother'!$D$5:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9.8410231006833999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4780858941142399E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4011419196020298E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.20856169182693E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.20079282871283E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3238892620838602E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6618746607280699E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.93322060696844E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8130076172087401E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0803375522961E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5589510722498802E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8297165660658901E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2023965164630101E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2508715804441301E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0268506492187804E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8708922659968898E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.11536619851093E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1448843764899E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2214010904546099E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88F2-49D6-910B-95E162499AE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454142080"/>
+        <c:axId val="1229420192"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'yang (pres.+time)_smoother'!$C$5:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'yang (pres.+time)_smoother'!$D$5:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.7124579007586897E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64824522860515E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>2.73100440936197E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>8.3633509573097897E-6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>4.0436368494760603E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.5015906623350999E-6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>1.56616688664231E-6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.2443202170310099E-6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>7.5790569054584304E-7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>5.7766325223904698E-7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>3.6280672620317E-7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2.0631680161536901E-7</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>1.7553334127136901E-7</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>8.3716398738829102E-8</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>8.8649588161641101E-8</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>3.59518710611267E-8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>2.1288057528622301E-8</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>1.34636013676027E-8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>7.7858478412989001E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88F2-49D6-910B-95E162499AE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>FE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'yang (flow+event)_smoother'!$C$5:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'yang (flow+event)_smoother'!$D$5:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.2228785227349499E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6822250427303299E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6936251798269599E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.46356390657706E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8290496975873107E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8415663556231397E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1591314012435599E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0876307012075299E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3750618881203901E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9632347187612505E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7714340155659895E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6801492081991199E-7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3196773629791501E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4466090781005999E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9258432369851904E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.45225159354783E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2983687942645003E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.97797991969882E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1775799779117699E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9786634898492104E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-88F2-49D6-910B-95E162499AE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454142080"/>
+        <c:axId val="1229420192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454142080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cycle Number [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1229420192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1229420192"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CSS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Conv. [-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454142080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2421,31 +3825,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>530860</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88392</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C4E8A1-288A-44C5-96D0-DF387A9AE675}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B68C36C-9669-48D5-A517-66A8DC8C3143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2454,6 +4376,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>134112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7031326-4F9E-4C0D-BAB7-C31BFFBE4C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2761,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736FB9B-CB38-4C95-8CD4-288B065D8CBF}">
   <dimension ref="B4:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -3290,7 +5250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9E55D-F5B6-48CB-BCDE-74F8ACAD2118}">
   <dimension ref="C4:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -3749,7 +5709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FAD013-A2F7-42D1-AF99-AD6B29236AE0}">
   <dimension ref="C4:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -4468,859 +6428,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85471527-966C-47CE-B5FC-A1887E633CB4}">
+  <dimension ref="B4:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.8410231006833999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.4780858941142399E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.4011419196020298E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.20856169182693E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.20079282871283E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.3238892620838602E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.6618746607280699E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.93322060696844E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.8130076172087401E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.0803375522961E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6.5589510722498802E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.8297165660658901E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.2023965164630101E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.2508715804441301E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.0268506492187804E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.8708922659968898E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.11536619851093E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.1448843764899E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6.2214010904546099E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>319</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F26" s="2">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <f>D26/(F26*G26)</f>
+        <v>8.3947368421052637</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>310.53100000000001</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>19</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" ref="H27:H30" si="0">D27/(F27*G27)</f>
+        <v>8.1718684210526309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>317.59399999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>19</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3577368421052629</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6">
+        <v>309.375</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1414473684210531</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>306.85899999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>19</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0752368421052623</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="4">
+        <f>AVERAGE(D26:D30)</f>
+        <v>312.67179999999996</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="4">
+        <f>AVERAGE(H26:H30)</f>
+        <v>8.2282052631578946</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EACF12-26DD-4AC9-A0EC-9448C0578F6F}">
+  <dimension ref="B4:H32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.2228785227349499E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.6822250427303299E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.6936251798269599E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.46356390657706E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.8290496975873107E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.8415663556231397E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.1591314012435599E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.0876307012075299E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.3750618881203901E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.9632347187612505E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.7714340155659895E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.6801492081991199E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.3196773629791501E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.4466090781005999E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8.9258432369851904E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.45225159354783E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.2983687942645003E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.97797991969882E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.1775799779117699E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6.9786634898492104E-9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="e">
+        <f>D27/(F27*G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="e">
+        <f t="shared" ref="H28:H31" si="0">D28/(F28*G28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="4" t="e">
+        <f>AVERAGE(D27:D31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="4" t="e">
+        <f>AVERAGE(H27:H31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9D3E83-4941-49F8-B6E2-EA2737309FED}">
+  <dimension ref="C4:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.7124579007586897E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.64824522860515E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.73100440936197E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.3633509573097897E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.0436368494760603E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.5015906623350999E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.56616688664231E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.2443202170310099E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.5790569054584304E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.7766325223904698E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3.6280672620317E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.0631680161536901E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.7553334127136901E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.3716398738829102E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>8.8649588161641101E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.59518710611267E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.1288057528622301E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.34636013676027E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.7858478412989001E-9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>166.23400000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F26" s="2">
+        <v>19</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <f>D26/(F26*G26)</f>
+        <v>4.3745789473684216</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>173.203</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F27" s="2">
+        <v>19</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" ref="H27:H30" si="0">D27/(F27*G27)</f>
+        <v>4.5579736842105261</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>166.48400000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>19</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3811578947368419</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>176.43799999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F29" s="2">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6431052631578948</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>168.875</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>19</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4440789473684212</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="4">
+        <f>AVERAGE(D26:D30)</f>
+        <v>170.24680000000001</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="4">
+        <f>AVERAGE(H26:H30)</f>
+        <v>4.4801789473684206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89DFD21-853D-449A-B22B-A0D62B2AD07F}">
+  <dimension ref="C4:H31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="e">
+        <f>D26/(F26*G26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="e">
+        <f t="shared" ref="H27:H30" si="0">D27/(F27*G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="D31" s="4" t="e">
+        <f>AVERAGE(D26:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="4" t="e">
+        <f>AVERAGE(H26:H30)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57299F3-5F52-4C08-BAF0-A4F2DC504CBE}">
-  <dimension ref="A2:F46"/>
+  <dimension ref="A4:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:O3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <f>'yang (flow+time)'!D5</f>
-        <v>9.0645639303730801E-3</v>
-      </c>
-      <c r="C5" s="9">
-        <f>'yang (flow+event)'!D5</f>
-        <v>1.23407689823485E-2</v>
-      </c>
-      <c r="D5" s="7">
-        <f>'yang (pres.+time)'!D5</f>
-        <v>1.0831835053885E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F46" si="0">0.00000001</f>
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B5:B46" si="0">0.00000001</f>
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <f>'yang (flow+time)'!D6</f>
-        <v>4.8494882259608101E-4</v>
-      </c>
-      <c r="C6" s="9">
-        <f>'yang (flow+event)'!D6</f>
-        <v>4.1613028666262102E-5</v>
-      </c>
-      <c r="D6" s="7">
-        <f>'yang (pres.+time)'!D6</f>
-        <v>4.8095424653246698E-4</v>
-      </c>
-      <c r="F6">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <f>'yang (flow+time)'!D7</f>
-        <v>6.1647930741714495E-5</v>
-      </c>
-      <c r="C7" s="9">
-        <f>'yang (flow+event)'!D7</f>
-        <v>5.8967054846503398E-6</v>
-      </c>
-      <c r="D7" s="7">
-        <f>'yang (pres.+time)'!D7</f>
-        <v>5.3013278633031099E-5</v>
-      </c>
-      <c r="F7">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
-        <f>'yang (flow+time)'!D8</f>
-        <v>1.2109054116809501E-5</v>
-      </c>
-      <c r="C8" s="9">
-        <f>'yang (flow+event)'!D8</f>
-        <v>2.5890167596097702E-6</v>
-      </c>
-      <c r="D8" s="7">
-        <f>'yang (pres.+time)'!D8</f>
-        <v>7.8041700514839502E-6</v>
-      </c>
-      <c r="F8">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <f>'yang (flow+time)'!D9</f>
-        <v>3.84620545391188E-6</v>
-      </c>
-      <c r="C9" s="9">
-        <f>'yang (flow+event)'!D9</f>
-        <v>1.74131683342535E-6</v>
-      </c>
-      <c r="D9" s="7">
-        <f>'yang (pres.+time)'!D9</f>
-        <v>1.9618461767615201E-6</v>
-      </c>
-      <c r="F9">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <f>'yang (flow+time)'!D10</f>
-        <v>1.9211661829017799E-6</v>
-      </c>
-      <c r="C10" s="9">
-        <f>'yang (flow+event)'!D10</f>
-        <v>1.3394250200971199E-6</v>
-      </c>
-      <c r="D10" s="7">
-        <f>'yang (pres.+time)'!D10</f>
-        <v>9.3576303643415104E-7</v>
-      </c>
-      <c r="F10">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11">
-        <f>'yang (flow+time)'!D11</f>
-        <v>1.27355974756811E-6</v>
-      </c>
-      <c r="C11" s="9">
-        <f>'yang (flow+event)'!D11</f>
-        <v>1.07813128615463E-6</v>
-      </c>
-      <c r="D11" s="7">
-        <f>'yang (pres.+time)'!D11</f>
-        <v>6.4157127524716698E-7</v>
-      </c>
-      <c r="F11">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12">
-        <f>'yang (flow+time)'!D12</f>
-        <v>9.689083460462581E-7</v>
-      </c>
-      <c r="C12" s="9">
-        <f>'yang (flow+event)'!D12</f>
-        <v>8.8317715928977295E-7</v>
-      </c>
-      <c r="D12" s="7">
-        <f>'yang (pres.+time)'!D12</f>
-        <v>4.9326161320973297E-7</v>
-      </c>
-      <c r="F12">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13">
-        <f>'yang (flow+time)'!D13</f>
-        <v>7.8292398807427297E-7</v>
-      </c>
-      <c r="C13" s="9">
-        <f>'yang (flow+event)'!D13</f>
-        <v>7.3045737648642604E-7</v>
-      </c>
-      <c r="D13" s="7">
-        <f>'yang (pres.+time)'!D13</f>
-        <v>4.0859005671857402E-7</v>
-      </c>
-      <c r="F13">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14">
-        <f>'yang (flow+time)'!D14</f>
-        <v>6.4971914041207399E-7</v>
-      </c>
-      <c r="C14" s="9">
-        <f>'yang (flow+event)'!D14</f>
-        <v>6.0710360025743704E-7</v>
-      </c>
-      <c r="D14" s="7">
-        <f>'yang (pres.+time)'!D14</f>
-        <v>3.3950433279754201E-7</v>
-      </c>
-      <c r="F14">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15">
-        <f>'yang (flow+time)'!D15</f>
-        <v>5.4573212913636097E-7</v>
-      </c>
-      <c r="C15" s="9">
-        <f>'yang (flow+event)'!D15</f>
-        <v>5.0568622162888499E-7</v>
-      </c>
-      <c r="D15" s="7">
-        <f>'yang (pres.+time)'!D15</f>
-        <v>2.8186388282054899E-7</v>
-      </c>
-      <c r="F15">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
-        <f>'yang (flow+time)'!D16</f>
-        <v>4.6170305178640203E-7</v>
-      </c>
-      <c r="C16" s="9">
-        <f>'yang (flow+event)'!D16</f>
-        <v>4.2272449277194099E-7</v>
-      </c>
-      <c r="D16" s="7">
-        <f>'yang (pres.+time)'!D16</f>
-        <v>2.38817715536678E-7</v>
-      </c>
-      <c r="F16">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17">
-        <f>'yang (flow+time)'!D17</f>
-        <v>3.9195875036619398E-7</v>
-      </c>
-      <c r="C17" s="9">
-        <f>'yang (flow+event)'!D17</f>
-        <v>3.5407872852904799E-7</v>
-      </c>
-      <c r="D17" s="7">
-        <f>'yang (pres.+time)'!D17</f>
-        <v>2.0002023491715199E-7</v>
-      </c>
-      <c r="F17">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18">
-        <f>'yang (flow+time)'!D18</f>
-        <v>3.3385894687318402E-7</v>
-      </c>
-      <c r="C18" s="9">
-        <f>'yang (flow+event)'!D18</f>
-        <v>2.9726853947968398E-7</v>
-      </c>
-      <c r="D18" s="7">
-        <f>'yang (pres.+time)'!D18</f>
-        <v>1.6711454024358499E-7</v>
-      </c>
-      <c r="F18">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
-        <f>'yang (flow+time)'!D19</f>
-        <v>2.8522749792658802E-7</v>
-      </c>
-      <c r="C19" s="9">
-        <f>'yang (flow+event)'!D19</f>
-        <v>2.49646115099842E-7</v>
-      </c>
-      <c r="D19" s="7">
-        <f>'yang (pres.+time)'!D19</f>
-        <v>1.42528971099536E-7</v>
-      </c>
-      <c r="F19">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
-        <f>'yang (flow+time)'!D20</f>
-        <v>2.4361464736355302E-7</v>
-      </c>
-      <c r="C20" s="9">
-        <f>'yang (flow+event)'!D20</f>
-        <v>2.09986120401049E-7</v>
-      </c>
-      <c r="D20" s="7">
-        <f>'yang (pres.+time)'!D20</f>
-        <v>1.2152270479162101E-7</v>
-      </c>
-      <c r="F20">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21">
-        <f>'yang (flow+time)'!D21</f>
-        <v>2.0108339072730999E-7</v>
-      </c>
-      <c r="C21" s="9">
-        <f>'yang (flow+event)'!D21</f>
-        <v>1.7713542238366799E-7</v>
-      </c>
-      <c r="D21" s="7">
-        <f>'yang (pres.+time)'!D21</f>
-        <v>9.9061361557608197E-8</v>
-      </c>
-      <c r="F21">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22">
-        <f>'yang (flow+time)'!D22</f>
-        <v>1.7700074086085999E-7</v>
-      </c>
-      <c r="C22" s="9">
-        <f>'yang (flow+event)'!D22</f>
-        <v>1.4977828284681401E-7</v>
-      </c>
-      <c r="D22" s="7">
-        <f>'yang (pres.+time)'!D22</f>
-        <v>8.5392628877543606E-8</v>
-      </c>
-      <c r="F22">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23">
-        <f>'yang (flow+time)'!D23</f>
-        <v>1.5304942682833E-7</v>
-      </c>
-      <c r="C23" s="9">
-        <f>'yang (flow+event)'!D23</f>
-        <v>1.2683544910923501E-7</v>
-      </c>
-      <c r="D23" s="7">
-        <f>'yang (pres.+time)'!D23</f>
-        <v>7.3444145500327303E-8</v>
-      </c>
-      <c r="F23">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24">
-        <f>'yang (flow+time)'!D24</f>
-        <v>1.3561024518096501E-7</v>
-      </c>
-      <c r="C24" s="9">
-        <f>'yang (flow+event)'!D24</f>
-        <v>1.0756399130515099E-7</v>
-      </c>
-      <c r="D24" s="7">
-        <f>'yang (pres.+time)'!D24</f>
-        <v>5.8430933109564801E-8</v>
-      </c>
-      <c r="F24">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25">
-        <f>'yang (flow+time)'!D25</f>
-        <v>1.1509915944738E-7</v>
-      </c>
-      <c r="C25" s="9">
-        <f>'yang (flow+event)'!D25</f>
-        <v>9.1359191283755107E-8</v>
-      </c>
-      <c r="D25" s="7">
-        <f>'yang (pres.+time)'!D25</f>
-        <v>5.3406178890292898E-8</v>
-      </c>
-      <c r="F25">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26">
-        <f>'yang (flow+time)'!D26</f>
-        <v>9.8986130988037402E-8</v>
-      </c>
-      <c r="C26" s="9">
-        <f>'yang (flow+event)'!D26</f>
-        <v>7.7699745102310796E-8</v>
-      </c>
-      <c r="D26" s="7">
-        <f>'yang (pres.+time)'!D26</f>
-        <v>4.6360321238453598E-8</v>
-      </c>
-      <c r="F26">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
       <c r="B27">
-        <f>'yang (flow+time)'!D27</f>
-        <v>8.5634019496327797E-8</v>
-      </c>
-      <c r="C27" s="9">
-        <f>'yang (flow+event)'!D27</f>
-        <v>6.6176750415532398E-8</v>
-      </c>
-      <c r="D27" s="7">
-        <f>'yang (pres.+time)'!D27</f>
-        <v>3.61300883575176E-8</v>
-      </c>
-      <c r="F27">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
       <c r="B28">
-        <f>'yang (flow+time)'!D28</f>
-        <v>7.4266953440042895E-8</v>
-      </c>
-      <c r="C28" s="9">
-        <f>'yang (flow+event)'!D28</f>
-        <v>5.6444161820788499E-8</v>
-      </c>
-      <c r="D28" s="7">
-        <f>'yang (pres.+time)'!D28</f>
-        <v>3.0035999000882299E-8</v>
-      </c>
-      <c r="F28">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29">
-        <f>'yang (flow+time)'!D29</f>
-        <v>6.4639400503281999E-8</v>
-      </c>
-      <c r="C29" s="9">
-        <f>'yang (flow+event)'!D29</f>
-        <v>4.8214374572649003E-8</v>
-      </c>
-      <c r="D29" s="7">
-        <f>'yang (pres.+time)'!D29</f>
-        <v>2.7158174902487701E-8</v>
-      </c>
-      <c r="F29">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
       <c r="B30">
-        <f>'yang (flow+time)'!D30</f>
-        <v>5.6254372316289502E-8</v>
-      </c>
-      <c r="C30" s="9">
-        <f>'yang (flow+event)'!D30</f>
-        <v>4.1246447130212699E-8</v>
-      </c>
-      <c r="D30" s="7">
-        <f>'yang (pres.+time)'!D30</f>
-        <v>2.0976464193207899E-8</v>
-      </c>
-      <c r="F30">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
       <c r="B31">
-        <f>'yang (flow+time)'!D31</f>
-        <v>4.9183281698979501E-8</v>
-      </c>
-      <c r="C31" s="9">
-        <f>'yang (flow+event)'!D31</f>
-        <v>3.5342426517407902E-8</v>
-      </c>
-      <c r="D31" s="7">
-        <f>'yang (pres.+time)'!D31</f>
-        <v>1.84260731426924E-8</v>
-      </c>
-      <c r="F31">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32">
-        <f>'yang (flow+time)'!D32</f>
-        <v>4.3124650710294002E-8</v>
-      </c>
-      <c r="C32" s="9">
-        <f>'yang (flow+event)'!D32</f>
-        <v>3.0336431272585998E-8</v>
-      </c>
-      <c r="D32" s="7">
-        <f>'yang (pres.+time)'!D32</f>
-        <v>1.5711840766939299E-8</v>
-      </c>
-      <c r="F32">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33">
-        <f>'yang (flow+time)'!D33</f>
-        <v>3.78819302640894E-8</v>
-      </c>
-      <c r="C33" s="9">
-        <f>'yang (flow+event)'!D33</f>
-        <v>2.6085485255806601E-8</v>
-      </c>
-      <c r="D33" s="7">
-        <f>'yang (pres.+time)'!D33</f>
-        <v>1.385131115105E-8</v>
-      </c>
-      <c r="F33">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="B34">
-        <f>'yang (flow+time)'!D34</f>
-        <v>3.3567012086772102E-8</v>
-      </c>
-      <c r="C34" s="9">
-        <f>'yang (flow+event)'!D34</f>
-        <v>2.24736312512332E-8</v>
-      </c>
-      <c r="D34" s="7">
-        <f>'yang (pres.+time)'!D34</f>
-        <v>1.21240752099985E-8</v>
-      </c>
-      <c r="F34">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="B35">
-        <f>'yang (flow+time)'!D35</f>
-        <v>2.9497709746373799E-8</v>
-      </c>
-      <c r="C35" s="9">
-        <f>'yang (flow+event)'!D35</f>
-        <v>1.94067321477659E-8</v>
-      </c>
-      <c r="D35" s="7">
-        <f>'yang (pres.+time)'!D35</f>
-        <v>9.6980839842130203E-9</v>
-      </c>
-      <c r="F35">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36">
-        <f>'yang (flow+time)'!D36</f>
-        <v>2.60500767258345E-8</v>
-      </c>
-      <c r="C36" s="9">
-        <f>'yang (flow+event)'!D36</f>
-        <v>1.6793560873613701E-8</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="F36">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
       <c r="B37">
-        <f>'yang (flow+time)'!D37</f>
-        <v>2.31325485416189E-8</v>
-      </c>
-      <c r="C37" s="9">
-        <f>'yang (flow+event)'!D37</f>
-        <v>1.45641822239934E-8</v>
-      </c>
-      <c r="F37">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
       <c r="B38">
-        <f>'yang (flow+time)'!D38</f>
-        <v>2.0609933338497499E-8</v>
-      </c>
-      <c r="C38" s="9">
-        <f>'yang (flow+event)'!D38</f>
-        <v>1.26636863347192E-8</v>
-      </c>
-      <c r="F38">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
       <c r="B39">
-        <f>'yang (flow+time)'!D39</f>
-        <v>1.84367304734062E-8</v>
-      </c>
-      <c r="C39" s="9">
-        <f>'yang (flow+event)'!D39</f>
-        <v>1.1041908680870201E-8</v>
-      </c>
-      <c r="F39">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
       <c r="B40">
-        <f>'yang (flow+time)'!D40</f>
-        <v>1.6542312630688901E-8</v>
-      </c>
-      <c r="C40" s="9">
-        <f>'yang (flow+event)'!D40</f>
-        <v>9.6551955592947007E-9</v>
-      </c>
-      <c r="F40">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41">
-        <f>'yang (flow+time)'!D41</f>
-        <v>1.4907017906797201E-8</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="F41">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
       <c r="B42">
-        <f>'yang (flow+time)'!D42</f>
-        <v>1.3502329088975901E-8</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="F42">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>
       <c r="B43">
-        <f>'yang (flow+time)'!D43</f>
-        <v>1.2244756374042999E-8</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="F43">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40</v>
       </c>
       <c r="B44">
-        <f>'yang (flow+time)'!D44</f>
-        <v>1.11491045100028E-8</v>
-      </c>
-      <c r="F44">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45">
-        <f>'yang (flow+time)'!D45</f>
-        <v>1.0197149136051199E-8</v>
-      </c>
-      <c r="F45">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>42</v>
       </c>
       <c r="B46">
-        <f>'yang (flow+time)'!D46</f>
-        <v>9.3657640566856205E-9</v>
-      </c>
-      <c r="F46">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>

--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C2A2A-FBD0-4163-BDE1-B07C4289879D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42196948-7D0D-46D6-A740-2EEA7AEEA644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="5" activeTab="8" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
   </bookViews>
   <sheets>
     <sheet name="yang (flow+time)" sheetId="1" r:id="rId1"/>
     <sheet name="yang (flow+event)" sheetId="6" r:id="rId2"/>
     <sheet name="yang (pres.+time)" sheetId="2" r:id="rId3"/>
     <sheet name="yang (pres.+event)" sheetId="4" r:id="rId4"/>
-    <sheet name="yang (flow+time)_smoother" sheetId="8" r:id="rId5"/>
-    <sheet name="yang (flow+event)_smoother" sheetId="9" r:id="rId6"/>
-    <sheet name="yang (pres.+time)_smoother" sheetId="7" r:id="rId7"/>
-    <sheet name="yang (pres.+event)_smoother" sheetId="10" r:id="rId8"/>
+    <sheet name="yang (flow+time)_smoother" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="yang (flow+event)_smoother" sheetId="9" state="hidden" r:id="rId6"/>
+    <sheet name="yang (pres.+time)_smoother" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="yang (pres.+event)_smoother" sheetId="10" state="hidden" r:id="rId8"/>
     <sheet name="comparisons" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
@@ -165,272 +165,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4721,7 +4456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736FB9B-CB38-4C95-8CD4-288B065D8CBF}">
   <dimension ref="B4:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -5250,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9E55D-F5B6-48CB-BCDE-74F8ACAD2118}">
   <dimension ref="C4:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6432,7 +6167,7 @@
   <dimension ref="B4:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6772,7 +6507,7 @@
   <dimension ref="B4:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7101,7 +6836,7 @@
   <dimension ref="C4:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7688,8 +7423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57299F3-5F52-4C08-BAF0-A4F2DC504CBE}">
   <dimension ref="A4:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_css_comparison_data_2022_12_26_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42196948-7D0D-46D6-A740-2EEA7AEEA644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0B1A8-CDDF-43B9-90E9-CC273D6C57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{EAFE1014-9F5F-4131-970F-58F315BD01A8}"/>
   </bookViews>
   <sheets>
     <sheet name="yang (flow+time)" sheetId="1" r:id="rId1"/>
@@ -4456,8 +4456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736FB9B-CB38-4C95-8CD4-288B065D8CBF}">
   <dimension ref="B4:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="C5:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4985,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9E55D-F5B6-48CB-BCDE-74F8ACAD2118}">
   <dimension ref="C4:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5444,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FAD013-A2F7-42D1-AF99-AD6B29236AE0}">
   <dimension ref="C4:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5863,8 +5863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9269801-6C6F-463A-B27E-A31CD8816D0C}">
   <dimension ref="C4:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
